--- a/Data/RV3_tourism_expenses_abroad.xlsx
+++ b/Data/RV3_tourism_expenses_abroad.xlsx
@@ -384,84 +384,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1998</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D1" s="1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2008</v>
       </c>
-      <c r="E1" s="1">
+      <c r="B2" s="1">
+        <v>181.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2009</v>
       </c>
-      <c r="F1" s="1">
+      <c r="B3" s="1">
+        <v>182.876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2010</v>
       </c>
-      <c r="G1" s="1">
+      <c r="B4" s="1">
+        <v>174.006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2011</v>
       </c>
-      <c r="H1" s="1">
+      <c r="B5" s="1">
+        <v>171.92099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2012</v>
       </c>
-      <c r="I1" s="1">
+      <c r="B6" s="1">
+        <v>160.65199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2013</v>
       </c>
-      <c r="J1" s="1">
+      <c r="B7" s="1">
+        <v>181.803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2014</v>
       </c>
-      <c r="K1" s="1">
+      <c r="B8" s="1">
+        <v>169.78899999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>158.96931480000001</v>
-      </c>
-      <c r="C2" s="1">
-        <v>144.12772090000001</v>
-      </c>
-      <c r="D2" s="1">
-        <v>181.06</v>
-      </c>
-      <c r="E2" s="1">
-        <v>182.876</v>
-      </c>
-      <c r="F2" s="1">
-        <v>174.006</v>
-      </c>
-      <c r="G2" s="1">
-        <v>171.92099999999999</v>
-      </c>
-      <c r="H2" s="1">
-        <v>160.65199999999999</v>
-      </c>
-      <c r="I2" s="1">
-        <v>181.803</v>
-      </c>
-      <c r="J2" s="1">
-        <v>169.78899999999999</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="B9" s="1">
         <v>157.767</v>
       </c>
     </row>

--- a/Data/RV3_tourism_expenses_abroad.xlsx
+++ b/Data/RV3_tourism_expenses_abroad.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,20 +29,26 @@
     <t>year</t>
   </si>
   <si>
-    <t>travelling_abroad</t>
+    <t>expenses_abroad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,7 +73,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,79 +402,66 @@
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2008</v>
       </c>
       <c r="B2" s="1">
         <v>181.06</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C2" s="1">
         <v>182.876</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="D2" s="1">
         <v>174.006</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="E2" s="1">
         <v>171.92099999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="F2" s="1">
         <v>160.65199999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="G2" s="1">
         <v>181.803</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="H2" s="1">
         <v>169.78899999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="I2" s="1">
         <v>157.767</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>